--- a/db/DATA CATAT METER PER TGL 20 JULI & 20 AGUSTUS.xlsx
+++ b/db/DATA CATAT METER PER TGL 20 JULI & 20 AGUSTUS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app_billingpdam\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF099BA-BFB4-401F-A10F-F2FC3E43ECF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B34B5-F894-42C1-BF3F-33DB4693C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{46F37FE5-F582-44B9-9BA5-C93620613A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="2276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="2295">
   <si>
     <t>DATA CATAT METER BULAN JULI &amp; AGUSTUS 2025 TIRTA SALAM</t>
   </si>
@@ -6863,6 +6864,63 @@
   </si>
   <si>
     <t>berisi grafik garis</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>dashboard-user</t>
+  </si>
+  <si>
+    <t>tugas UI</t>
+  </si>
+  <si>
+    <t>data pelanggan</t>
+  </si>
+  <si>
+    <t>tambah</t>
+  </si>
+  <si>
+    <t>ubah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload </t>
+  </si>
+  <si>
+    <t>catat meter</t>
+  </si>
+  <si>
+    <t>rincian</t>
+  </si>
+  <si>
+    <t>tagihan baru</t>
+  </si>
+  <si>
+    <t>biaya upgrade paket</t>
+  </si>
+  <si>
+    <t>penyesuaian tagihan</t>
+  </si>
+  <si>
+    <t>terima pembayaran tagihan</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ket</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>kredit</t>
+  </si>
+  <si>
+    <t>sisa tagihan</t>
+  </si>
+  <si>
+    <t>tagihan Bulan Januari 2025</t>
   </si>
 </sst>
 </file>
@@ -6894,7 +6952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6904,6 +6962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7086,9 +7150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32735,10 +32801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F87E9DE-87DF-43D8-B21B-5FCE12DDB071}">
-  <dimension ref="A3:O55"/>
+  <dimension ref="A3:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33063,15 +33129,11 @@
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="20"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="17"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="27" t="s">
         <v>2216</v>
       </c>
       <c r="J41" s="9"/>
@@ -33141,7 +33203,7 @@
       </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -33151,32 +33213,179 @@
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C52" s="23" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2271</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C54" s="23" t="s">
         <v>2270</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2272</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="29" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>2292</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="28">
+        <v>1</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28">
+        <f>SUM(E72:E74)</f>
+        <v>120000</v>
+      </c>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="28"/>
+      <c r="C72" s="28" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E72" s="28">
+        <v>150000</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E73" s="28">
+        <v>20000</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E74" s="28">
+        <v>-50000</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G75">
+        <v>120000</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62633C37-0EE8-4547-96CA-F9248F4F64DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>